--- a/resultados/pretratamiento-tablas-control/pretrat-italia-elo-facil-regular.xlsx
+++ b/resultados/pretratamiento-tablas-control/pretrat-italia-elo-facil-regular.xlsx
@@ -121,7 +121,7 @@
     <t>40.039 (127)</t>
   </si>
   <si>
-    <t>10.803 (127)</t>
+    <t>10.795 (127)</t>
   </si>
   <si>
     <t>10.874 (127)</t>
@@ -280,7 +280,7 @@
     <t>39.765 (102)</t>
   </si>
   <si>
-    <t>10.843 (102)</t>
+    <t>10.833 (102)</t>
   </si>
   <si>
     <t>11.049 (102)</t>
@@ -436,7 +436,7 @@
     <t>39.843 (83)</t>
   </si>
   <si>
-    <t>10.843 (83)</t>
+    <t>10.831 (83)</t>
   </si>
   <si>
     <t>11.566 (83)</t>
@@ -592,7 +592,7 @@
     <t>39.986 (69)</t>
   </si>
   <si>
-    <t>10.971 (69)</t>
+    <t>10.957 (69)</t>
   </si>
   <si>
     <t>11.159 (69)</t>
@@ -646,7 +646,7 @@
     <t>41.65 (100)</t>
   </si>
   <si>
-    <t>10.39 (100)</t>
+    <t>10.4 (100)</t>
   </si>
   <si>
     <t>10.2 (100)</t>
@@ -700,7 +700,7 @@
     <t>42.763 (38)</t>
   </si>
   <si>
-    <t>11.895 (38)</t>
+    <t>11.868 (38)</t>
   </si>
   <si>
     <t>10.737 (38)</t>
@@ -844,7 +844,7 @@
     <t>43.859 (71)</t>
   </si>
   <si>
-    <t>11.225 (71)</t>
+    <t>11.211 (71)</t>
   </si>
   <si>
     <t>10.606 (71)</t>
@@ -1006,7 +1006,7 @@
     <t>42.609 (92)</t>
   </si>
   <si>
-    <t>11.304 (92)</t>
+    <t>11.293 (92)</t>
   </si>
   <si>
     <t>10.978 (92)</t>
@@ -1165,7 +1165,7 @@
     <t>42.077 (91)</t>
   </si>
   <si>
-    <t>11.286 (91)</t>
+    <t>11.275 (91)</t>
   </si>
   <si>
     <t>10.857 (91)</t>
@@ -1420,7 +1420,7 @@
     <t>41.196 (56)</t>
   </si>
   <si>
-    <t>10.946 (56)</t>
+    <t>10.929 (56)</t>
   </si>
   <si>
     <t>10.304 (56)</t>
@@ -1579,7 +1579,7 @@
     <t>43.261 (69)</t>
   </si>
   <si>
-    <t>11.493 (69)</t>
+    <t>11.478 (69)</t>
   </si>
   <si>
     <t>11.0 (69)</t>
@@ -1795,7 +1795,7 @@
     <t>44.355 (31)</t>
   </si>
   <si>
-    <t>11.419 (31)</t>
+    <t>11.387 (31)</t>
   </si>
   <si>
     <t>10.387 (31)</t>
@@ -2008,7 +2008,7 @@
     <t>44.294 (51)</t>
   </si>
   <si>
-    <t>11.314 (51)</t>
+    <t>11.294 (51)</t>
   </si>
   <si>
     <t>9.804 (51)</t>
@@ -2209,438 +2209,438 @@
     <t>40.464 (56)</t>
   </si>
   <si>
+    <t>11.839 (56)</t>
+  </si>
+  <si>
+    <t>11.071 (56)</t>
+  </si>
+  <si>
+    <t>11.732 (56)</t>
+  </si>
+  <si>
+    <t>13.268 (56)</t>
+  </si>
+  <si>
+    <t>13.571 (56)</t>
+  </si>
+  <si>
+    <t>13.929 (56)</t>
+  </si>
+  <si>
+    <t>0.526 (56)</t>
+  </si>
+  <si>
+    <t>0.552 (56)</t>
+  </si>
+  <si>
+    <t>0.562 (56)</t>
+  </si>
+  <si>
+    <t>0.568 (56)</t>
+  </si>
+  <si>
+    <t>0.598 (56)</t>
+  </si>
+  <si>
+    <t>48.492 (63)</t>
+  </si>
+  <si>
+    <t>48.873 (63)</t>
+  </si>
+  <si>
+    <t>45.302 (63)</t>
+  </si>
+  <si>
+    <t>44.27 (63)</t>
+  </si>
+  <si>
+    <t>41.857 (63)</t>
+  </si>
+  <si>
+    <t>42.444 (63)</t>
+  </si>
+  <si>
+    <t>11.317 (63)</t>
+  </si>
+  <si>
+    <t>10.286 (63)</t>
+  </si>
+  <si>
+    <t>12.175 (63)</t>
+  </si>
+  <si>
+    <t>12.032 (63)</t>
+  </si>
+  <si>
+    <t>13.0 (63)</t>
+  </si>
+  <si>
+    <t>12.571 (63)</t>
+  </si>
+  <si>
+    <t>0.562 (63)</t>
+  </si>
+  <si>
+    <t>0.576 (63)</t>
+  </si>
+  <si>
+    <t>0.582 (63)</t>
+  </si>
+  <si>
+    <t>0.605 (63)</t>
+  </si>
+  <si>
+    <t>0.619 (63)</t>
+  </si>
+  <si>
+    <t>47.833 (12)</t>
+  </si>
+  <si>
+    <t>43.417 (12)</t>
+  </si>
+  <si>
+    <t>44.083 (12)</t>
+  </si>
+  <si>
+    <t>35.417 (12)</t>
+  </si>
+  <si>
+    <t>38.25 (12)</t>
+  </si>
+  <si>
+    <t>38.833 (12)</t>
+  </si>
+  <si>
+    <t>11.833 (12)</t>
+  </si>
+  <si>
+    <t>12.75 (12)</t>
+  </si>
+  <si>
+    <t>13.083 (12)</t>
+  </si>
+  <si>
+    <t>16.333 (12)</t>
+  </si>
+  <si>
+    <t>14.583 (12)</t>
+  </si>
+  <si>
+    <t>14.333 (12)</t>
+  </si>
+  <si>
+    <t>0.55 (12)</t>
+  </si>
+  <si>
+    <t>0.554 (12)</t>
+  </si>
+  <si>
+    <t>0.566 (12)</t>
+  </si>
+  <si>
+    <t>0.562 (12)</t>
+  </si>
+  <si>
+    <t>0.575 (12)</t>
+  </si>
+  <si>
+    <t>0.556 (12)</t>
+  </si>
+  <si>
+    <t>37.5 (2)</t>
+  </si>
+  <si>
+    <t>44.5 (2)</t>
+  </si>
+  <si>
+    <t>42.0 (2)</t>
+  </si>
+  <si>
+    <t>29.0 (2)</t>
+  </si>
+  <si>
+    <t>34.5 (2)</t>
+  </si>
+  <si>
+    <t>28.5 (2)</t>
+  </si>
+  <si>
+    <t>16.0 (2)</t>
+  </si>
+  <si>
+    <t>12.0 (2)</t>
+  </si>
+  <si>
+    <t>12.5 (2)</t>
+  </si>
+  <si>
+    <t>19.0 (2)</t>
+  </si>
+  <si>
+    <t>15.5 (2)</t>
+  </si>
+  <si>
+    <t>17.0 (2)</t>
+  </si>
+  <si>
+    <t>0.477 (2)</t>
+  </si>
+  <si>
+    <t>0.565 (2)</t>
+  </si>
+  <si>
+    <t>0.634 (2)</t>
+  </si>
+  <si>
+    <t>0.678 (2)</t>
+  </si>
+  <si>
+    <t>0.454 (2)</t>
+  </si>
+  <si>
+    <t>0.573 (2)</t>
+  </si>
+  <si>
+    <t>49.154 (39)</t>
+  </si>
+  <si>
+    <t>47.59 (39)</t>
+  </si>
+  <si>
+    <t>44.0 (39)</t>
+  </si>
+  <si>
+    <t>40.692 (39)</t>
+  </si>
+  <si>
+    <t>37.974 (39)</t>
+  </si>
+  <si>
+    <t>36.385 (39)</t>
+  </si>
+  <si>
+    <t>10.513 (39)</t>
+  </si>
+  <si>
+    <t>10.744 (39)</t>
+  </si>
+  <si>
+    <t>12.487 (39)</t>
+  </si>
+  <si>
+    <t>13.846 (39)</t>
+  </si>
+  <si>
+    <t>14.692 (39)</t>
+  </si>
+  <si>
+    <t>14.974 (39)</t>
+  </si>
+  <si>
+    <t>0.5 (39)</t>
+  </si>
+  <si>
+    <t>0.522 (39)</t>
+  </si>
+  <si>
+    <t>0.529 (39)</t>
+  </si>
+  <si>
+    <t>0.539 (39)</t>
+  </si>
+  <si>
+    <t>0.557 (39)</t>
+  </si>
+  <si>
+    <t>0.594 (39)</t>
+  </si>
+  <si>
+    <t>47.907 (54)</t>
+  </si>
+  <si>
+    <t>48.222 (54)</t>
+  </si>
+  <si>
+    <t>47.426 (54)</t>
+  </si>
+  <si>
+    <t>45.685 (54)</t>
+  </si>
+  <si>
+    <t>43.37 (54)</t>
+  </si>
+  <si>
+    <t>41.241 (54)</t>
+  </si>
+  <si>
+    <t>11.741 (54)</t>
+  </si>
+  <si>
+    <t>10.574 (54)</t>
+  </si>
+  <si>
+    <t>11.611 (54)</t>
+  </si>
+  <si>
+    <t>12.5 (54)</t>
+  </si>
+  <si>
+    <t>13.352 (54)</t>
+  </si>
+  <si>
+    <t>0.544 (54)</t>
+  </si>
+  <si>
+    <t>0.564 (54)</t>
+  </si>
+  <si>
+    <t>0.58 (54)</t>
+  </si>
+  <si>
+    <t>0.579 (54)</t>
+  </si>
+  <si>
+    <t>0.591 (54)</t>
+  </si>
+  <si>
+    <t>0.6 (54)</t>
+  </si>
+  <si>
+    <t>44.48 (25)</t>
+  </si>
+  <si>
+    <t>47.56 (25)</t>
+  </si>
+  <si>
+    <t>43.88 (25)</t>
+  </si>
+  <si>
+    <t>40.84 (25)</t>
+  </si>
+  <si>
+    <t>41.12 (25)</t>
+  </si>
+  <si>
+    <t>41.24 (25)</t>
+  </si>
+  <si>
+    <t>13.12 (25)</t>
+  </si>
+  <si>
+    <t>10.64 (25)</t>
+  </si>
+  <si>
+    <t>12.84 (25)</t>
+  </si>
+  <si>
+    <t>14.0 (25)</t>
+  </si>
+  <si>
+    <t>13.36 (25)</t>
+  </si>
+  <si>
+    <t>13.32 (25)</t>
+  </si>
+  <si>
+    <t>0.567 (25)</t>
+  </si>
+  <si>
+    <t>0.597 (25)</t>
+  </si>
+  <si>
+    <t>0.595 (25)</t>
+  </si>
+  <si>
+    <t>0.614 (25)</t>
+  </si>
+  <si>
+    <t>0.634 (25)</t>
+  </si>
+  <si>
+    <t>0.62 (25)</t>
+  </si>
+  <si>
+    <t>49.227 (22)</t>
+  </si>
+  <si>
+    <t>47.182 (22)</t>
+  </si>
+  <si>
+    <t>42.5 (22)</t>
+  </si>
+  <si>
+    <t>38.727 (22)</t>
+  </si>
+  <si>
+    <t>39.545 (22)</t>
+  </si>
+  <si>
+    <t>35.864 (22)</t>
+  </si>
+  <si>
+    <t>10.318 (22)</t>
+  </si>
+  <si>
+    <t>11.0 (22)</t>
+  </si>
+  <si>
+    <t>12.818 (22)</t>
+  </si>
+  <si>
+    <t>14.909 (22)</t>
+  </si>
+  <si>
+    <t>14.227 (22)</t>
+  </si>
+  <si>
+    <t>15.227 (22)</t>
+  </si>
+  <si>
+    <t>0.47 (22)</t>
+  </si>
+  <si>
+    <t>0.514 (22)</t>
+  </si>
+  <si>
+    <t>0.538 (22)</t>
+  </si>
+  <si>
+    <t>0.522 (22)</t>
+  </si>
+  <si>
+    <t>0.542 (22)</t>
+  </si>
+  <si>
+    <t>48.071 (56)</t>
+  </si>
+  <si>
+    <t>47.768 (56)</t>
+  </si>
+  <si>
+    <t>47.804 (56)</t>
+  </si>
+  <si>
+    <t>45.107 (56)</t>
+  </si>
+  <si>
+    <t>41.304 (56)</t>
+  </si>
+  <si>
+    <t>40.643 (56)</t>
+  </si>
+  <si>
+    <t>11.464 (56)</t>
+  </si>
+  <si>
+    <t>10.732 (56)</t>
+  </si>
+  <si>
+    <t>11.393 (56)</t>
+  </si>
+  <si>
     <t>11.821 (56)</t>
   </si>
   <si>
-    <t>11.071 (56)</t>
-  </si>
-  <si>
-    <t>11.732 (56)</t>
-  </si>
-  <si>
-    <t>13.268 (56)</t>
-  </si>
-  <si>
-    <t>13.571 (56)</t>
-  </si>
-  <si>
-    <t>13.929 (56)</t>
-  </si>
-  <si>
-    <t>0.526 (56)</t>
-  </si>
-  <si>
-    <t>0.552 (56)</t>
-  </si>
-  <si>
-    <t>0.562 (56)</t>
-  </si>
-  <si>
-    <t>0.568 (56)</t>
-  </si>
-  <si>
-    <t>0.598 (56)</t>
-  </si>
-  <si>
-    <t>48.492 (63)</t>
-  </si>
-  <si>
-    <t>48.873 (63)</t>
-  </si>
-  <si>
-    <t>45.302 (63)</t>
-  </si>
-  <si>
-    <t>44.27 (63)</t>
-  </si>
-  <si>
-    <t>41.857 (63)</t>
-  </si>
-  <si>
-    <t>42.444 (63)</t>
-  </si>
-  <si>
-    <t>11.349 (63)</t>
-  </si>
-  <si>
-    <t>10.286 (63)</t>
-  </si>
-  <si>
-    <t>12.175 (63)</t>
-  </si>
-  <si>
-    <t>12.032 (63)</t>
-  </si>
-  <si>
-    <t>13.0 (63)</t>
-  </si>
-  <si>
-    <t>12.571 (63)</t>
-  </si>
-  <si>
-    <t>0.562 (63)</t>
-  </si>
-  <si>
-    <t>0.576 (63)</t>
-  </si>
-  <si>
-    <t>0.582 (63)</t>
-  </si>
-  <si>
-    <t>0.605 (63)</t>
-  </si>
-  <si>
-    <t>0.619 (63)</t>
-  </si>
-  <si>
-    <t>47.833 (12)</t>
-  </si>
-  <si>
-    <t>43.417 (12)</t>
-  </si>
-  <si>
-    <t>44.083 (12)</t>
-  </si>
-  <si>
-    <t>35.417 (12)</t>
-  </si>
-  <si>
-    <t>38.25 (12)</t>
-  </si>
-  <si>
-    <t>38.833 (12)</t>
-  </si>
-  <si>
-    <t>11.833 (12)</t>
-  </si>
-  <si>
-    <t>12.75 (12)</t>
-  </si>
-  <si>
-    <t>13.083 (12)</t>
-  </si>
-  <si>
-    <t>16.333 (12)</t>
-  </si>
-  <si>
-    <t>14.583 (12)</t>
-  </si>
-  <si>
-    <t>14.333 (12)</t>
-  </si>
-  <si>
-    <t>0.55 (12)</t>
-  </si>
-  <si>
-    <t>0.554 (12)</t>
-  </si>
-  <si>
-    <t>0.566 (12)</t>
-  </si>
-  <si>
-    <t>0.562 (12)</t>
-  </si>
-  <si>
-    <t>0.575 (12)</t>
-  </si>
-  <si>
-    <t>0.556 (12)</t>
-  </si>
-  <si>
-    <t>37.5 (2)</t>
-  </si>
-  <si>
-    <t>44.5 (2)</t>
-  </si>
-  <si>
-    <t>42.0 (2)</t>
-  </si>
-  <si>
-    <t>29.0 (2)</t>
-  </si>
-  <si>
-    <t>34.5 (2)</t>
-  </si>
-  <si>
-    <t>28.5 (2)</t>
-  </si>
-  <si>
-    <t>16.0 (2)</t>
-  </si>
-  <si>
-    <t>12.0 (2)</t>
-  </si>
-  <si>
-    <t>12.5 (2)</t>
-  </si>
-  <si>
-    <t>19.0 (2)</t>
-  </si>
-  <si>
-    <t>15.5 (2)</t>
-  </si>
-  <si>
-    <t>17.0 (2)</t>
-  </si>
-  <si>
-    <t>0.477 (2)</t>
-  </si>
-  <si>
-    <t>0.565 (2)</t>
-  </si>
-  <si>
-    <t>0.634 (2)</t>
-  </si>
-  <si>
-    <t>0.678 (2)</t>
-  </si>
-  <si>
-    <t>0.454 (2)</t>
-  </si>
-  <si>
-    <t>0.573 (2)</t>
-  </si>
-  <si>
-    <t>49.154 (39)</t>
-  </si>
-  <si>
-    <t>47.59 (39)</t>
-  </si>
-  <si>
-    <t>44.0 (39)</t>
-  </si>
-  <si>
-    <t>40.692 (39)</t>
-  </si>
-  <si>
-    <t>37.974 (39)</t>
-  </si>
-  <si>
-    <t>36.385 (39)</t>
-  </si>
-  <si>
-    <t>10.513 (39)</t>
-  </si>
-  <si>
-    <t>10.744 (39)</t>
-  </si>
-  <si>
-    <t>12.487 (39)</t>
-  </si>
-  <si>
-    <t>13.846 (39)</t>
-  </si>
-  <si>
-    <t>14.692 (39)</t>
-  </si>
-  <si>
-    <t>14.974 (39)</t>
-  </si>
-  <si>
-    <t>0.5 (39)</t>
-  </si>
-  <si>
-    <t>0.522 (39)</t>
-  </si>
-  <si>
-    <t>0.529 (39)</t>
-  </si>
-  <si>
-    <t>0.539 (39)</t>
-  </si>
-  <si>
-    <t>0.557 (39)</t>
-  </si>
-  <si>
-    <t>0.594 (39)</t>
-  </si>
-  <si>
-    <t>47.907 (54)</t>
-  </si>
-  <si>
-    <t>48.222 (54)</t>
-  </si>
-  <si>
-    <t>47.426 (54)</t>
-  </si>
-  <si>
-    <t>45.685 (54)</t>
-  </si>
-  <si>
-    <t>43.37 (54)</t>
-  </si>
-  <si>
-    <t>41.241 (54)</t>
-  </si>
-  <si>
-    <t>11.722 (54)</t>
-  </si>
-  <si>
-    <t>10.574 (54)</t>
-  </si>
-  <si>
-    <t>11.611 (54)</t>
-  </si>
-  <si>
-    <t>11.741 (54)</t>
-  </si>
-  <si>
-    <t>12.5 (54)</t>
-  </si>
-  <si>
-    <t>13.352 (54)</t>
-  </si>
-  <si>
-    <t>0.544 (54)</t>
-  </si>
-  <si>
-    <t>0.564 (54)</t>
-  </si>
-  <si>
-    <t>0.58 (54)</t>
-  </si>
-  <si>
-    <t>0.579 (54)</t>
-  </si>
-  <si>
-    <t>0.591 (54)</t>
-  </si>
-  <si>
-    <t>0.6 (54)</t>
-  </si>
-  <si>
-    <t>44.48 (25)</t>
-  </si>
-  <si>
-    <t>47.56 (25)</t>
-  </si>
-  <si>
-    <t>43.88 (25)</t>
-  </si>
-  <si>
-    <t>40.84 (25)</t>
-  </si>
-  <si>
-    <t>41.12 (25)</t>
-  </si>
-  <si>
-    <t>41.24 (25)</t>
-  </si>
-  <si>
-    <t>13.12 (25)</t>
-  </si>
-  <si>
-    <t>10.64 (25)</t>
-  </si>
-  <si>
-    <t>12.84 (25)</t>
-  </si>
-  <si>
-    <t>14.0 (25)</t>
-  </si>
-  <si>
-    <t>13.36 (25)</t>
-  </si>
-  <si>
-    <t>13.32 (25)</t>
-  </si>
-  <si>
-    <t>0.567 (25)</t>
-  </si>
-  <si>
-    <t>0.597 (25)</t>
-  </si>
-  <si>
-    <t>0.595 (25)</t>
-  </si>
-  <si>
-    <t>0.614 (25)</t>
-  </si>
-  <si>
-    <t>0.634 (25)</t>
-  </si>
-  <si>
-    <t>0.62 (25)</t>
-  </si>
-  <si>
-    <t>49.227 (22)</t>
-  </si>
-  <si>
-    <t>47.182 (22)</t>
-  </si>
-  <si>
-    <t>42.5 (22)</t>
-  </si>
-  <si>
-    <t>38.727 (22)</t>
-  </si>
-  <si>
-    <t>39.545 (22)</t>
-  </si>
-  <si>
-    <t>35.864 (22)</t>
-  </si>
-  <si>
-    <t>10.318 (22)</t>
-  </si>
-  <si>
-    <t>11.0 (22)</t>
-  </si>
-  <si>
-    <t>12.818 (22)</t>
-  </si>
-  <si>
-    <t>14.909 (22)</t>
-  </si>
-  <si>
-    <t>14.227 (22)</t>
-  </si>
-  <si>
-    <t>15.227 (22)</t>
-  </si>
-  <si>
-    <t>0.47 (22)</t>
-  </si>
-  <si>
-    <t>0.514 (22)</t>
-  </si>
-  <si>
-    <t>0.538 (22)</t>
-  </si>
-  <si>
-    <t>0.522 (22)</t>
-  </si>
-  <si>
-    <t>0.542 (22)</t>
-  </si>
-  <si>
-    <t>48.071 (56)</t>
-  </si>
-  <si>
-    <t>47.768 (56)</t>
-  </si>
-  <si>
-    <t>47.804 (56)</t>
-  </si>
-  <si>
-    <t>45.107 (56)</t>
-  </si>
-  <si>
-    <t>41.304 (56)</t>
-  </si>
-  <si>
-    <t>40.643 (56)</t>
-  </si>
-  <si>
-    <t>11.446 (56)</t>
-  </si>
-  <si>
-    <t>10.732 (56)</t>
-  </si>
-  <si>
-    <t>11.393 (56)</t>
-  </si>
-  <si>
     <t>13.107 (56)</t>
   </si>
   <si>
@@ -2836,7 +2836,7 @@
     <t>39.125 (40)</t>
   </si>
   <si>
-    <t>11.75 (40)</t>
+    <t>11.775 (40)</t>
   </si>
   <si>
     <t>11.075 (40)</t>
@@ -3037,7 +3037,7 @@
     <t>38.062 (32)</t>
   </si>
   <si>
-    <t>11.938 (32)</t>
+    <t>11.969 (32)</t>
   </si>
   <si>
     <t>11.062 (32)</t>
@@ -3632,10 +3632,10 @@
         <v>-2.451</v>
       </c>
       <c r="H2">
-        <v>-0.68</v>
+        <v>-0.486</v>
       </c>
       <c r="I2">
-        <v>0.498</v>
+        <v>0.627</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -3661,10 +3661,10 @@
         <v>2.296</v>
       </c>
       <c r="H3">
-        <v>0.639</v>
+        <v>0.667</v>
       </c>
       <c r="I3">
-        <v>0.524</v>
+        <v>0.505</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -3690,10 +3690,10 @@
         <v>-0.717</v>
       </c>
       <c r="H4">
-        <v>-0.171</v>
+        <v>-0.173</v>
       </c>
       <c r="I4">
-        <v>0.864</v>
+        <v>0.863</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -3719,10 +3719,10 @@
         <v>-4.996</v>
       </c>
       <c r="H5">
-        <v>-1.006</v>
+        <v>-0.753</v>
       </c>
       <c r="I5">
-        <v>0.316</v>
+        <v>0.451</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -3748,10 +3748,10 @@
         <v>3.894</v>
       </c>
       <c r="H6">
-        <v>0.766</v>
+        <v>0.645</v>
       </c>
       <c r="I6">
-        <v>0.445</v>
+        <v>0.519</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -3777,10 +3777,10 @@
         <v>3.028</v>
       </c>
       <c r="H7">
-        <v>0.58</v>
+        <v>0.606</v>
       </c>
       <c r="I7">
-        <v>0.5629999999999999</v>
+        <v>0.544</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -3803,13 +3803,13 @@
         <v>0.035</v>
       </c>
       <c r="G8">
-        <v>1.51</v>
+        <v>1.536</v>
       </c>
       <c r="H8">
-        <v>0.952</v>
+        <v>0.788</v>
       </c>
       <c r="I8">
-        <v>0.342</v>
+        <v>0.431</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3835,10 +3835,10 @@
         <v>-1.353</v>
       </c>
       <c r="H9">
-        <v>-0.821</v>
+        <v>-1.132</v>
       </c>
       <c r="I9">
-        <v>0.413</v>
+        <v>0.258</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -3864,10 +3864,10 @@
         <v>0.162</v>
       </c>
       <c r="H10">
-        <v>0.08</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I10">
-        <v>0.9370000000000001</v>
+        <v>0.931</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -3893,10 +3893,10 @@
         <v>2.252</v>
       </c>
       <c r="H11">
-        <v>1.093</v>
+        <v>0.844</v>
       </c>
       <c r="I11">
-        <v>0.276</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -3922,10 +3922,10 @@
         <v>-0.397</v>
       </c>
       <c r="H12">
-        <v>-0.193</v>
+        <v>-0.185</v>
       </c>
       <c r="I12">
-        <v>0.847</v>
+        <v>0.854</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -3951,10 +3951,10 @@
         <v>0.065</v>
       </c>
       <c r="H13">
-        <v>0.032</v>
+        <v>0.033</v>
       </c>
       <c r="I13">
-        <v>0.975</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -3980,10 +3980,10 @@
         <v>-0.021</v>
       </c>
       <c r="H14">
-        <v>-0.655</v>
+        <v>-0.497</v>
       </c>
       <c r="I14">
-        <v>0.513</v>
+        <v>0.619</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -4009,10 +4009,10 @@
         <v>-0.003</v>
       </c>
       <c r="H15">
-        <v>-0.099</v>
+        <v>-0.08</v>
       </c>
       <c r="I15">
-        <v>0.921</v>
+        <v>0.9360000000000001</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -4038,10 +4038,10 @@
         <v>0.012</v>
       </c>
       <c r="H16">
-        <v>0.363</v>
+        <v>0.31</v>
       </c>
       <c r="I16">
-        <v>0.717</v>
+        <v>0.756</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -4067,10 +4067,10 @@
         <v>0.034</v>
       </c>
       <c r="H17">
-        <v>1.003</v>
+        <v>0.891</v>
       </c>
       <c r="I17">
-        <v>0.317</v>
+        <v>0.373</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -4096,10 +4096,10 @@
         <v>0.07099999999999999</v>
       </c>
       <c r="H18">
-        <v>2.065</v>
+        <v>1.855</v>
       </c>
       <c r="I18">
-        <v>0.04</v>
+        <v>0.064</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -4125,10 +4125,10 @@
         <v>0.058</v>
       </c>
       <c r="H19">
-        <v>1.697</v>
+        <v>1.756</v>
       </c>
       <c r="I19">
-        <v>0.092</v>
+        <v>0.079</v>
       </c>
     </row>
   </sheetData>
@@ -4214,10 +4214,10 @@
         <v>-5.26</v>
       </c>
       <c r="I2">
-        <v>-1.055</v>
+        <v>-0.829</v>
       </c>
       <c r="J2">
-        <v>0.294</v>
+        <v>0.407</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -4246,10 +4246,10 @@
         <v>1.333</v>
       </c>
       <c r="I3">
-        <v>0.313</v>
+        <v>0.363</v>
       </c>
       <c r="J3">
-        <v>0.755</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -4278,10 +4278,10 @@
         <v>-1.787</v>
       </c>
       <c r="I4">
-        <v>-0.317</v>
+        <v>-0.299</v>
       </c>
       <c r="J4">
-        <v>0.752</v>
+        <v>0.765</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -4310,10 +4310,10 @@
         <v>-9.803000000000001</v>
       </c>
       <c r="I5">
-        <v>-1.479</v>
+        <v>-1.631</v>
       </c>
       <c r="J5">
-        <v>0.142</v>
+        <v>0.103</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -4342,10 +4342,10 @@
         <v>-5.665</v>
       </c>
       <c r="I6">
-        <v>-0.856</v>
+        <v>-0.718</v>
       </c>
       <c r="J6">
-        <v>0.394</v>
+        <v>0.473</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -4374,10 +4374,10 @@
         <v>-6.723</v>
       </c>
       <c r="I7">
-        <v>-0.944</v>
+        <v>-0.796</v>
       </c>
       <c r="J7">
-        <v>0.347</v>
+        <v>0.426</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -4403,13 +4403,13 @@
         <v>0.032</v>
       </c>
       <c r="H8">
-        <v>3.856</v>
+        <v>3.781</v>
       </c>
       <c r="I8">
-        <v>1.761</v>
+        <v>1.485</v>
       </c>
       <c r="J8">
-        <v>0.081</v>
+        <v>0.138</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -4438,10 +4438,10 @@
         <v>-0.852</v>
       </c>
       <c r="I9">
-        <v>-0.419</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="J9">
-        <v>0.676</v>
+        <v>0.576</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -4470,10 +4470,10 @@
         <v>-0.252</v>
       </c>
       <c r="I10">
-        <v>-0.091</v>
+        <v>-0.089</v>
       </c>
       <c r="J10">
-        <v>0.928</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -4502,10 +4502,10 @@
         <v>3.526</v>
       </c>
       <c r="I11">
-        <v>1.229</v>
+        <v>1.478</v>
       </c>
       <c r="J11">
-        <v>0.222</v>
+        <v>0.139</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -4534,10 +4534,10 @@
         <v>2.764</v>
       </c>
       <c r="I12">
-        <v>1.022</v>
+        <v>0.9419999999999999</v>
       </c>
       <c r="J12">
-        <v>0.309</v>
+        <v>0.346</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -4566,10 +4566,10 @@
         <v>2.115</v>
       </c>
       <c r="I13">
-        <v>0.728</v>
+        <v>0.699</v>
       </c>
       <c r="J13">
-        <v>0.469</v>
+        <v>0.485</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -4598,10 +4598,10 @@
         <v>0.081</v>
       </c>
       <c r="I14">
-        <v>1.736</v>
+        <v>1.968</v>
       </c>
       <c r="J14">
-        <v>0.08599999999999999</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -4630,7 +4630,7 @@
         <v>0.014</v>
       </c>
       <c r="I15">
-        <v>0.338</v>
+        <v>0.337</v>
       </c>
       <c r="J15">
         <v>0.736</v>
@@ -4662,10 +4662,10 @@
         <v>0.035</v>
       </c>
       <c r="I16">
-        <v>0.792</v>
+        <v>0.521</v>
       </c>
       <c r="J16">
-        <v>0.43</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -4694,10 +4694,10 @@
         <v>0.018</v>
       </c>
       <c r="I17">
-        <v>0.408</v>
+        <v>0.312</v>
       </c>
       <c r="J17">
-        <v>0.6840000000000001</v>
+        <v>0.755</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -4726,10 +4726,10 @@
         <v>0.008</v>
       </c>
       <c r="I18">
-        <v>0.161</v>
+        <v>0.16</v>
       </c>
       <c r="J18">
-        <v>0.872</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -4758,10 +4758,10 @@
         <v>0.015</v>
       </c>
       <c r="I19">
-        <v>0.313</v>
+        <v>0.348</v>
       </c>
       <c r="J19">
-        <v>0.755</v>
+        <v>0.727</v>
       </c>
     </row>
   </sheetData>
@@ -4854,10 +4854,10 @@
         <v>-12.384</v>
       </c>
       <c r="J2">
-        <v>-2.166</v>
+        <v>-1.893</v>
       </c>
       <c r="K2">
-        <v>0.033</v>
+        <v>0.058</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -4889,10 +4889,10 @@
         <v>-2.345</v>
       </c>
       <c r="J3">
-        <v>-0.472</v>
+        <v>-0.435</v>
       </c>
       <c r="K3">
-        <v>0.638</v>
+        <v>0.664</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -4924,10 +4924,10 @@
         <v>-1.228</v>
       </c>
       <c r="J4">
-        <v>-0.187</v>
+        <v>-0.175</v>
       </c>
       <c r="K4">
-        <v>0.852</v>
+        <v>0.861</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -4959,10 +4959,10 @@
         <v>-6.292</v>
       </c>
       <c r="J5">
-        <v>-0.8080000000000001</v>
+        <v>-0.797</v>
       </c>
       <c r="K5">
-        <v>0.421</v>
+        <v>0.425</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -4994,10 +4994,10 @@
         <v>-3.518</v>
       </c>
       <c r="J6">
-        <v>-0.455</v>
+        <v>-0.384</v>
       </c>
       <c r="K6">
-        <v>0.65</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5029,10 +5029,10 @@
         <v>-3.552</v>
       </c>
       <c r="J7">
-        <v>-0.426</v>
+        <v>-0.359</v>
       </c>
       <c r="K7">
-        <v>0.671</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5061,13 +5061,13 @@
         <v>0.025</v>
       </c>
       <c r="I8">
-        <v>6.822</v>
+        <v>6.755</v>
       </c>
       <c r="J8">
-        <v>2.726</v>
+        <v>2.285</v>
       </c>
       <c r="K8">
-        <v>0.008</v>
+        <v>0.022</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5099,10 +5099,10 @@
         <v>0.8120000000000001</v>
       </c>
       <c r="J9">
-        <v>0.343</v>
+        <v>0.397</v>
       </c>
       <c r="K9">
-        <v>0.733</v>
+        <v>0.6909999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5134,10 +5134,10 @@
         <v>-0.659</v>
       </c>
       <c r="J10">
-        <v>-0.204</v>
+        <v>-0.177</v>
       </c>
       <c r="K10">
-        <v>0.839</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5169,10 +5169,10 @@
         <v>2.374</v>
       </c>
       <c r="J11">
-        <v>0.706</v>
+        <v>0.734</v>
       </c>
       <c r="K11">
-        <v>0.482</v>
+        <v>0.463</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5204,10 +5204,10 @@
         <v>2.213</v>
       </c>
       <c r="J12">
-        <v>0.7</v>
+        <v>0.609</v>
       </c>
       <c r="K12">
-        <v>0.485</v>
+        <v>0.543</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5239,10 +5239,10 @@
         <v>0.585</v>
       </c>
       <c r="J13">
-        <v>0.172</v>
+        <v>0.163</v>
       </c>
       <c r="K13">
-        <v>0.864</v>
+        <v>0.871</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5274,10 +5274,10 @@
         <v>0.001</v>
       </c>
       <c r="J14">
-        <v>0.024</v>
+        <v>0.031</v>
       </c>
       <c r="K14">
-        <v>0.981</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -5309,10 +5309,10 @@
         <v>0.013</v>
       </c>
       <c r="J15">
-        <v>0.282</v>
+        <v>0.224</v>
       </c>
       <c r="K15">
-        <v>0.779</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -5344,10 +5344,10 @@
         <v>-0.002</v>
       </c>
       <c r="J16">
-        <v>-0.042</v>
+        <v>-0.026</v>
       </c>
       <c r="K16">
-        <v>0.967</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -5379,10 +5379,10 @@
         <v>-0.007</v>
       </c>
       <c r="J17">
-        <v>-0.13</v>
+        <v>-0.112</v>
       </c>
       <c r="K17">
-        <v>0.897</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -5414,10 +5414,10 @@
         <v>-0.016</v>
       </c>
       <c r="J18">
-        <v>-0.279</v>
+        <v>-0.314</v>
       </c>
       <c r="K18">
-        <v>0.781</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -5449,10 +5449,10 @@
         <v>0.013</v>
       </c>
       <c r="J19">
-        <v>0.238</v>
+        <v>0.249</v>
       </c>
       <c r="K19">
-        <v>0.8120000000000001</v>
+        <v>0.804</v>
       </c>
     </row>
   </sheetData>
@@ -5545,10 +5545,10 @@
         <v>-10.32</v>
       </c>
       <c r="J2">
-        <v>-1.594</v>
+        <v>-1.718</v>
       </c>
       <c r="K2">
-        <v>0.114</v>
+        <v>0.08599999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -5580,10 +5580,10 @@
         <v>-3.813</v>
       </c>
       <c r="J3">
-        <v>-0.6860000000000001</v>
+        <v>-0.6909999999999999</v>
       </c>
       <c r="K3">
-        <v>0.494</v>
+        <v>0.49</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -5615,10 +5615,10 @@
         <v>-2.763</v>
       </c>
       <c r="J4">
-        <v>-0.375</v>
+        <v>-0.426</v>
       </c>
       <c r="K4">
-        <v>0.708</v>
+        <v>0.67</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -5650,10 +5650,10 @@
         <v>-5.513</v>
       </c>
       <c r="J5">
-        <v>-0.631</v>
+        <v>-0.581</v>
       </c>
       <c r="K5">
-        <v>0.53</v>
+        <v>0.5610000000000001</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -5685,10 +5685,10 @@
         <v>-2.925</v>
       </c>
       <c r="J6">
-        <v>-0.337</v>
+        <v>-0.248</v>
       </c>
       <c r="K6">
-        <v>0.737</v>
+        <v>0.804</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -5720,10 +5720,10 @@
         <v>-10.391</v>
       </c>
       <c r="J7">
-        <v>-1.118</v>
+        <v>-0.861</v>
       </c>
       <c r="K7">
-        <v>0.266</v>
+        <v>0.389</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -5752,13 +5752,13 @@
         <v>0.019</v>
       </c>
       <c r="I8">
-        <v>6.353</v>
+        <v>6.222</v>
       </c>
       <c r="J8">
-        <v>2.239</v>
+        <v>2.361</v>
       </c>
       <c r="K8">
-        <v>0.027</v>
+        <v>0.018</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -5790,10 +5790,10 @@
         <v>2.591</v>
       </c>
       <c r="J9">
-        <v>0.978</v>
+        <v>1.137</v>
       </c>
       <c r="K9">
-        <v>0.33</v>
+        <v>0.255</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -5825,10 +5825,10 @@
         <v>-0.154</v>
       </c>
       <c r="J10">
-        <v>-0.042</v>
+        <v>-0.045</v>
       </c>
       <c r="K10">
-        <v>0.966</v>
+        <v>0.964</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -5860,10 +5860,10 @@
         <v>2.443</v>
       </c>
       <c r="J11">
-        <v>0.648</v>
+        <v>0.765</v>
       </c>
       <c r="K11">
-        <v>0.519</v>
+        <v>0.444</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -5895,10 +5895,10 @@
         <v>1.537</v>
       </c>
       <c r="J12">
-        <v>0.433</v>
+        <v>0.336</v>
       </c>
       <c r="K12">
-        <v>0.666</v>
+        <v>0.737</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -5930,10 +5930,10 @@
         <v>3.597</v>
       </c>
       <c r="J13">
-        <v>0.948</v>
+        <v>0.724</v>
       </c>
       <c r="K13">
-        <v>0.345</v>
+        <v>0.469</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -5965,10 +5965,10 @@
         <v>0.023</v>
       </c>
       <c r="J14">
-        <v>0.38</v>
+        <v>0.469</v>
       </c>
       <c r="K14">
-        <v>0.705</v>
+        <v>0.639</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -6000,10 +6000,10 @@
         <v>0.051</v>
       </c>
       <c r="J15">
-        <v>0.956</v>
+        <v>1.036</v>
       </c>
       <c r="K15">
-        <v>0.341</v>
+        <v>0.3</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -6035,10 +6035,10 @@
         <v>-0.003</v>
       </c>
       <c r="J16">
-        <v>-0.046</v>
+        <v>-0.034</v>
       </c>
       <c r="K16">
-        <v>0.963</v>
+        <v>0.972</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -6070,10 +6070,10 @@
         <v>-0.037</v>
       </c>
       <c r="J17">
-        <v>-0.63</v>
+        <v>-0.484</v>
       </c>
       <c r="K17">
-        <v>0.53</v>
+        <v>0.629</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -6105,10 +6105,10 @@
         <v>-0.002</v>
       </c>
       <c r="J18">
-        <v>-0.035</v>
+        <v>-0.03</v>
       </c>
       <c r="K18">
-        <v>0.972</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -6140,10 +6140,10 @@
         <v>-0.032</v>
       </c>
       <c r="J19">
-        <v>-0.508</v>
+        <v>-0.457</v>
       </c>
       <c r="K19">
-        <v>0.612</v>
+        <v>0.648</v>
       </c>
     </row>
   </sheetData>
@@ -6210,7 +6210,7 @@
         <v>808</v>
       </c>
       <c r="D2" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="E2">
         <v>118</v>
@@ -6222,10 +6222,10 @@
         <v>-9.237</v>
       </c>
       <c r="H2">
-        <v>-2.397</v>
+        <v>-1.511</v>
       </c>
       <c r="I2">
-        <v>0.019</v>
+        <v>0.131</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -6239,7 +6239,7 @@
         <v>809</v>
       </c>
       <c r="D3" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="E3">
         <v>118</v>
@@ -6251,10 +6251,10 @@
         <v>0.326</v>
       </c>
       <c r="H3">
-        <v>0.107</v>
+        <v>0.11</v>
       </c>
       <c r="I3">
-        <v>0.915</v>
+        <v>0.912</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -6268,7 +6268,7 @@
         <v>810</v>
       </c>
       <c r="D4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="E4">
         <v>118</v>
@@ -6280,10 +6280,10 @@
         <v>0.116</v>
       </c>
       <c r="H4">
-        <v>0.025</v>
+        <v>0.028</v>
       </c>
       <c r="I4">
-        <v>0.98</v>
+        <v>0.977</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -6297,7 +6297,7 @@
         <v>811</v>
       </c>
       <c r="D5" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="E5">
         <v>118</v>
@@ -6309,10 +6309,10 @@
         <v>-1.519</v>
       </c>
       <c r="H5">
-        <v>-0.291</v>
+        <v>-0.268</v>
       </c>
       <c r="I5">
-        <v>0.772</v>
+        <v>0.789</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -6326,7 +6326,7 @@
         <v>812</v>
       </c>
       <c r="D6" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="E6">
         <v>118</v>
@@ -6338,10 +6338,10 @@
         <v>2.092</v>
       </c>
       <c r="H6">
-        <v>0.413</v>
+        <v>0.368</v>
       </c>
       <c r="I6">
-        <v>0.68</v>
+        <v>0.713</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -6355,7 +6355,7 @@
         <v>813</v>
       </c>
       <c r="D7" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="E7">
         <v>118</v>
@@ -6367,10 +6367,10 @@
         <v>3.133</v>
       </c>
       <c r="H7">
-        <v>0.585</v>
+        <v>0.44</v>
       </c>
       <c r="I7">
-        <v>0.5610000000000001</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -6384,7 +6384,7 @@
         <v>814</v>
       </c>
       <c r="D8" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="E8">
         <v>118</v>
@@ -6393,13 +6393,13 @@
         <v>0.059</v>
       </c>
       <c r="G8">
-        <v>5.428</v>
+        <v>5.477</v>
       </c>
       <c r="H8">
-        <v>3.262</v>
+        <v>2.502</v>
       </c>
       <c r="I8">
-        <v>0.002</v>
+        <v>0.012</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -6413,7 +6413,7 @@
         <v>815</v>
       </c>
       <c r="D9" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="E9">
         <v>118</v>
@@ -6425,10 +6425,10 @@
         <v>-0.309</v>
       </c>
       <c r="H9">
-        <v>-0.217</v>
+        <v>-0.234</v>
       </c>
       <c r="I9">
-        <v>0.829</v>
+        <v>0.8149999999999999</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -6442,7 +6442,7 @@
         <v>816</v>
       </c>
       <c r="D10" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="E10">
         <v>118</v>
@@ -6454,10 +6454,10 @@
         <v>-0.05</v>
       </c>
       <c r="H10">
-        <v>-0.022</v>
+        <v>-0.024</v>
       </c>
       <c r="I10">
-        <v>0.982</v>
+        <v>0.981</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -6468,10 +6468,10 @@
         <v>799</v>
       </c>
       <c r="C11" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
       <c r="D11" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="E11">
         <v>118</v>
@@ -6483,10 +6483,10 @@
         <v>0.398</v>
       </c>
       <c r="H11">
-        <v>0.169</v>
+        <v>0.213</v>
       </c>
       <c r="I11">
-        <v>0.866</v>
+        <v>0.831</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -6497,10 +6497,10 @@
         <v>800</v>
       </c>
       <c r="C12" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="D12" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="E12">
         <v>118</v>
@@ -6512,10 +6512,10 @@
         <v>-1.25</v>
       </c>
       <c r="H12">
-        <v>-0.593</v>
+        <v>-0.529</v>
       </c>
       <c r="I12">
-        <v>0.555</v>
+        <v>0.597</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -6526,10 +6526,10 @@
         <v>801</v>
       </c>
       <c r="C13" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="D13" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="E13">
         <v>118</v>
@@ -6541,10 +6541,10 @@
         <v>-0.617</v>
       </c>
       <c r="H13">
-        <v>-0.273</v>
+        <v>-0.207</v>
       </c>
       <c r="I13">
-        <v>0.786</v>
+        <v>0.836</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6555,10 +6555,10 @@
         <v>802</v>
       </c>
       <c r="C14" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="D14" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="E14">
         <v>118</v>
@@ -6570,10 +6570,10 @@
         <v>0.004</v>
       </c>
       <c r="H14">
-        <v>0.108</v>
+        <v>0.107</v>
       </c>
       <c r="I14">
-        <v>0.914</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6584,10 +6584,10 @@
         <v>803</v>
       </c>
       <c r="C15" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D15" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="E15">
         <v>118</v>
@@ -6599,10 +6599,10 @@
         <v>0.026</v>
       </c>
       <c r="H15">
-        <v>0.781</v>
+        <v>0.573</v>
       </c>
       <c r="I15">
-        <v>0.437</v>
+        <v>0.5669999999999999</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6613,10 +6613,10 @@
         <v>804</v>
       </c>
       <c r="C16" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D16" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="E16">
         <v>118</v>
@@ -6628,10 +6628,10 @@
         <v>0.031</v>
       </c>
       <c r="H16">
-        <v>0.827</v>
+        <v>0.712</v>
       </c>
       <c r="I16">
-        <v>0.411</v>
+        <v>0.477</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -6642,10 +6642,10 @@
         <v>805</v>
       </c>
       <c r="C17" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D17" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="E17">
         <v>118</v>
@@ -6657,10 +6657,10 @@
         <v>0.031</v>
       </c>
       <c r="H17">
-        <v>0.819</v>
+        <v>0.843</v>
       </c>
       <c r="I17">
-        <v>0.415</v>
+        <v>0.399</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -6671,10 +6671,10 @@
         <v>806</v>
       </c>
       <c r="C18" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D18" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="E18">
         <v>118</v>
@@ -6686,10 +6686,10 @@
         <v>0.042</v>
       </c>
       <c r="H18">
-        <v>1.047</v>
+        <v>0.952</v>
       </c>
       <c r="I18">
-        <v>0.299</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -6700,10 +6700,10 @@
         <v>807</v>
       </c>
       <c r="C19" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D19" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="E19">
         <v>118</v>
@@ -6715,10 +6715,10 @@
         <v>0.008</v>
       </c>
       <c r="H19">
-        <v>0.182</v>
+        <v>0.16</v>
       </c>
       <c r="I19">
-        <v>0.856</v>
+        <v>0.873</v>
       </c>
     </row>
   </sheetData>
@@ -6783,10 +6783,10 @@
         <v>6</v>
       </c>
       <c r="B2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="C2" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="D2" t="s">
         <v>878</v>
@@ -6804,10 +6804,10 @@
         <v>-10.277</v>
       </c>
       <c r="I2">
-        <v>-2.176</v>
+        <v>-1.636</v>
       </c>
       <c r="J2">
-        <v>0.033</v>
+        <v>0.102</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -6815,10 +6815,10 @@
         <v>7</v>
       </c>
       <c r="B3" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="C3" t="s">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="D3" t="s">
         <v>879</v>
@@ -6836,10 +6836,10 @@
         <v>3.964</v>
       </c>
       <c r="I3">
-        <v>1.075</v>
+        <v>1.074</v>
       </c>
       <c r="J3">
-        <v>0.286</v>
+        <v>0.283</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -6847,10 +6847,10 @@
         <v>8</v>
       </c>
       <c r="B4" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C4" t="s">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="D4" t="s">
         <v>880</v>
@@ -6868,10 +6868,10 @@
         <v>1.029</v>
       </c>
       <c r="I4">
-        <v>0.184</v>
+        <v>0.18</v>
       </c>
       <c r="J4">
-        <v>0.854</v>
+        <v>0.857</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -6879,10 +6879,10 @@
         <v>9</v>
       </c>
       <c r="B5" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C5" t="s">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="D5" t="s">
         <v>881</v>
@@ -6900,10 +6900,10 @@
         <v>-1.382</v>
       </c>
       <c r="I5">
-        <v>-0.217</v>
+        <v>-0.2</v>
       </c>
       <c r="J5">
-        <v>0.829</v>
+        <v>0.841</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -6911,10 +6911,10 @@
         <v>10</v>
       </c>
       <c r="B6" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C6" t="s">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="D6" t="s">
         <v>882</v>
@@ -6932,10 +6932,10 @@
         <v>-4.07</v>
       </c>
       <c r="I6">
-        <v>-0.662</v>
+        <v>-0.596</v>
       </c>
       <c r="J6">
-        <v>0.51</v>
+        <v>0.551</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -6943,10 +6943,10 @@
         <v>11</v>
       </c>
       <c r="B7" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C7" t="s">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="D7" t="s">
         <v>883</v>
@@ -6964,10 +6964,10 @@
         <v>-1.95</v>
       </c>
       <c r="I7">
-        <v>-0.298</v>
+        <v>-0.276</v>
       </c>
       <c r="J7">
-        <v>0.766</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -6975,10 +6975,10 @@
         <v>12</v>
       </c>
       <c r="B8" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C8" t="s">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="D8" t="s">
         <v>884</v>
@@ -6993,13 +6993,13 @@
         <v>0.04</v>
       </c>
       <c r="H8">
-        <v>5.985</v>
+        <v>6.017</v>
       </c>
       <c r="I8">
-        <v>2.917</v>
+        <v>2.433</v>
       </c>
       <c r="J8">
-        <v>0.005</v>
+        <v>0.015</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -7007,10 +7007,10 @@
         <v>13</v>
       </c>
       <c r="B9" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="C9" t="s">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="D9" t="s">
         <v>885</v>
@@ -7028,10 +7028,10 @@
         <v>-1.934</v>
       </c>
       <c r="I9">
-        <v>-1.123</v>
+        <v>-1.15</v>
       </c>
       <c r="J9">
-        <v>0.265</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -7039,10 +7039,10 @@
         <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C10" t="s">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D10" t="s">
         <v>886</v>
@@ -7060,10 +7060,10 @@
         <v>-0.526</v>
       </c>
       <c r="I10">
-        <v>-0.192</v>
+        <v>-0.174</v>
       </c>
       <c r="J10">
-        <v>0.848</v>
+        <v>0.862</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -7071,10 +7071,10 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C11" t="s">
-        <v>726</v>
+        <v>869</v>
       </c>
       <c r="D11" t="s">
         <v>887</v>
@@ -7092,10 +7092,10 @@
         <v>-0.353</v>
       </c>
       <c r="I11">
-        <v>-0.123</v>
+        <v>-0.127</v>
       </c>
       <c r="J11">
-        <v>0.902</v>
+        <v>0.899</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -7103,7 +7103,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C12" t="s">
         <v>870</v>
@@ -7124,10 +7124,10 @@
         <v>1.398</v>
       </c>
       <c r="I12">
-        <v>0.544</v>
+        <v>0.51</v>
       </c>
       <c r="J12">
-        <v>0.588</v>
+        <v>0.61</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -7135,7 +7135,7 @@
         <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="C13" t="s">
         <v>871</v>
@@ -7156,10 +7156,10 @@
         <v>1.151</v>
       </c>
       <c r="I13">
-        <v>0.419</v>
+        <v>0.352</v>
       </c>
       <c r="J13">
-        <v>0.676</v>
+        <v>0.725</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -7167,7 +7167,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="C14" t="s">
         <v>872</v>
@@ -7188,10 +7188,10 @@
         <v>0.032</v>
       </c>
       <c r="I14">
-        <v>0.725</v>
+        <v>0.673</v>
       </c>
       <c r="J14">
-        <v>0.471</v>
+        <v>0.501</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -7199,7 +7199,7 @@
         <v>19</v>
       </c>
       <c r="B15" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="C15" t="s">
         <v>873</v>
@@ -7220,10 +7220,10 @@
         <v>0.019</v>
       </c>
       <c r="I15">
-        <v>0.469</v>
+        <v>0.276</v>
       </c>
       <c r="J15">
-        <v>0.64</v>
+        <v>0.783</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -7231,7 +7231,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C16" t="s">
         <v>874</v>
@@ -7252,10 +7252,10 @@
         <v>0.006</v>
       </c>
       <c r="I16">
-        <v>0.123</v>
+        <v>0.112</v>
       </c>
       <c r="J16">
-        <v>0.902</v>
+        <v>0.911</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -7263,7 +7263,7 @@
         <v>21</v>
       </c>
       <c r="B17" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C17" t="s">
         <v>875</v>
@@ -7284,10 +7284,10 @@
         <v>0.047</v>
       </c>
       <c r="I17">
-        <v>1.008</v>
+        <v>0.832</v>
       </c>
       <c r="J17">
-        <v>0.317</v>
+        <v>0.406</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -7295,7 +7295,7 @@
         <v>22</v>
       </c>
       <c r="B18" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C18" t="s">
         <v>876</v>
@@ -7316,10 +7316,10 @@
         <v>0.023</v>
       </c>
       <c r="I18">
-        <v>0.475</v>
+        <v>0.463</v>
       </c>
       <c r="J18">
-        <v>0.636</v>
+        <v>0.644</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -7348,10 +7348,10 @@
         <v>-0.053</v>
       </c>
       <c r="I19">
-        <v>-1.029</v>
+        <v>-0.762</v>
       </c>
       <c r="J19">
-        <v>0.307</v>
+        <v>0.446</v>
       </c>
     </row>
   </sheetData>
@@ -7444,10 +7444,10 @@
         <v>-13.045</v>
       </c>
       <c r="J2">
-        <v>-2.282</v>
+        <v>-2.003</v>
       </c>
       <c r="K2">
-        <v>0.025</v>
+        <v>0.045</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -7479,10 +7479,10 @@
         <v>-1.518</v>
       </c>
       <c r="J3">
-        <v>-0.337</v>
+        <v>-0.307</v>
       </c>
       <c r="K3">
-        <v>0.737</v>
+        <v>0.759</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -7514,10 +7514,10 @@
         <v>-3.988</v>
       </c>
       <c r="J4">
-        <v>-0.59</v>
+        <v>-0.5610000000000001</v>
       </c>
       <c r="K4">
-        <v>0.5570000000000001</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -7549,10 +7549,10 @@
         <v>-0.651</v>
       </c>
       <c r="J5">
-        <v>-0.08400000000000001</v>
+        <v>-0.094</v>
       </c>
       <c r="K5">
-        <v>0.9330000000000001</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -7584,10 +7584,10 @@
         <v>-1.295</v>
       </c>
       <c r="J6">
-        <v>-0.173</v>
+        <v>-0.154</v>
       </c>
       <c r="K6">
-        <v>0.863</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -7619,10 +7619,10 @@
         <v>0.118</v>
       </c>
       <c r="J7">
-        <v>0.015</v>
+        <v>0.014</v>
       </c>
       <c r="K7">
-        <v>0.988</v>
+        <v>0.989</v>
       </c>
     </row>
     <row r="8" spans="1:11">
@@ -7651,10 +7651,10 @@
         <v>0.03</v>
       </c>
       <c r="I8">
-        <v>7.761</v>
+        <v>7.779</v>
       </c>
       <c r="J8">
-        <v>3.14</v>
+        <v>3.11</v>
       </c>
       <c r="K8">
         <v>0.002</v>
@@ -7689,10 +7689,10 @@
         <v>0.602</v>
       </c>
       <c r="J9">
-        <v>0.285</v>
+        <v>0.282</v>
       </c>
       <c r="K9">
-        <v>0.776</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="10" spans="1:11">
@@ -7724,10 +7724,10 @@
         <v>1.65</v>
       </c>
       <c r="J10">
-        <v>0.498</v>
+        <v>0.425</v>
       </c>
       <c r="K10">
-        <v>0.62</v>
+        <v>0.671</v>
       </c>
     </row>
     <row r="11" spans="1:11">
@@ -7759,10 +7759,10 @@
         <v>-0.014</v>
       </c>
       <c r="J11">
-        <v>-0.004</v>
+        <v>-0.005</v>
       </c>
       <c r="K11">
-        <v>0.997</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="12" spans="1:11">
@@ -7794,10 +7794,10 @@
         <v>0.548</v>
       </c>
       <c r="J12">
-        <v>0.175</v>
+        <v>0.149</v>
       </c>
       <c r="K12">
-        <v>0.861</v>
+        <v>0.881</v>
       </c>
     </row>
     <row r="13" spans="1:11">
@@ -7829,10 +7829,10 @@
         <v>-0.418</v>
       </c>
       <c r="J13">
-        <v>-0.125</v>
+        <v>-0.113</v>
       </c>
       <c r="K13">
-        <v>0.901</v>
+        <v>0.91</v>
       </c>
     </row>
     <row r="14" spans="1:11">
@@ -7864,10 +7864,10 @@
         <v>-0.028</v>
       </c>
       <c r="J14">
-        <v>-0.511</v>
+        <v>-0.441</v>
       </c>
       <c r="K14">
-        <v>0.611</v>
+        <v>0.659</v>
       </c>
     </row>
     <row r="15" spans="1:11">
@@ -7899,10 +7899,10 @@
         <v>0.027</v>
       </c>
       <c r="J15">
-        <v>0.547</v>
+        <v>0.269</v>
       </c>
       <c r="K15">
-        <v>0.586</v>
+        <v>0.788</v>
       </c>
     </row>
     <row r="16" spans="1:11">
@@ -7934,10 +7934,10 @@
         <v>-0.055</v>
       </c>
       <c r="J16">
-        <v>-1.01</v>
+        <v>-0.889</v>
       </c>
       <c r="K16">
-        <v>0.316</v>
+        <v>0.374</v>
       </c>
     </row>
     <row r="17" spans="1:11">
@@ -7969,10 +7969,10 @@
         <v>0.024</v>
       </c>
       <c r="J17">
-        <v>0.427</v>
+        <v>0.359</v>
       </c>
       <c r="K17">
-        <v>0.671</v>
+        <v>0.72</v>
       </c>
     </row>
     <row r="18" spans="1:11">
@@ -8004,10 +8004,10 @@
         <v>0.012</v>
       </c>
       <c r="J18">
-        <v>0.203</v>
+        <v>0.199</v>
       </c>
       <c r="K18">
-        <v>0.839</v>
+        <v>0.842</v>
       </c>
     </row>
     <row r="19" spans="1:11">
@@ -8039,10 +8039,10 @@
         <v>-0.07000000000000001</v>
       </c>
       <c r="J19">
-        <v>-1.124</v>
+        <v>-0.881</v>
       </c>
       <c r="K19">
-        <v>0.265</v>
+        <v>0.378</v>
       </c>
     </row>
   </sheetData>
@@ -8142,10 +8142,10 @@
         <v>-12.089</v>
       </c>
       <c r="K2">
-        <v>-1.844</v>
+        <v>-2.133</v>
       </c>
       <c r="L2">
-        <v>0.06900000000000001</v>
+        <v>0.033</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -8180,10 +8180,10 @@
         <v>0.884</v>
       </c>
       <c r="K3">
-        <v>0.173</v>
+        <v>0.178</v>
       </c>
       <c r="L3">
-        <v>0.863</v>
+        <v>0.859</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -8218,10 +8218,10 @@
         <v>-6.985</v>
       </c>
       <c r="K4">
-        <v>-0.914</v>
+        <v>-0.9360000000000001</v>
       </c>
       <c r="L4">
-        <v>0.364</v>
+        <v>0.349</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -8256,10 +8256,10 @@
         <v>-0.803</v>
       </c>
       <c r="K5">
-        <v>-0.092</v>
+        <v>-0.109</v>
       </c>
       <c r="L5">
-        <v>0.927</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -8294,10 +8294,10 @@
         <v>4.479</v>
       </c>
       <c r="K6">
-        <v>0.529</v>
+        <v>0.473</v>
       </c>
       <c r="L6">
-        <v>0.599</v>
+        <v>0.636</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -8332,10 +8332,10 @@
         <v>-2.881</v>
       </c>
       <c r="K7">
-        <v>-0.32</v>
+        <v>-0.304</v>
       </c>
       <c r="L7">
-        <v>0.75</v>
+        <v>0.761</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -8367,13 +8367,13 @@
         <v>0.025</v>
       </c>
       <c r="J8">
-        <v>7.576</v>
+        <v>7.559</v>
       </c>
       <c r="K8">
-        <v>2.658</v>
+        <v>3.26</v>
       </c>
       <c r="L8">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -8408,10 +8408,10 @@
         <v>-0.141</v>
       </c>
       <c r="K9">
-        <v>-0.059</v>
+        <v>-0.062</v>
       </c>
       <c r="L9">
-        <v>0.953</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -8446,10 +8446,10 @@
         <v>2.795</v>
       </c>
       <c r="K10">
-        <v>0.745</v>
+        <v>0.71</v>
       </c>
       <c r="L10">
-        <v>0.459</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -8484,10 +8484,10 @@
         <v>0.338</v>
       </c>
       <c r="K11">
-        <v>0.08599999999999999</v>
+        <v>0.107</v>
       </c>
       <c r="L11">
-        <v>0.9320000000000001</v>
+        <v>0.914</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -8504,7 +8504,7 @@
         <v>1024</v>
       </c>
       <c r="E12" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="F12" t="s">
         <v>1053</v>
@@ -8522,10 +8522,10 @@
         <v>-1.894</v>
       </c>
       <c r="K12">
-        <v>-0.536</v>
+        <v>-0.467</v>
       </c>
       <c r="L12">
-        <v>0.594</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -8560,10 +8560,10 @@
         <v>0.86</v>
       </c>
       <c r="K13">
-        <v>0.227</v>
+        <v>0.198</v>
       </c>
       <c r="L13">
-        <v>0.821</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -8598,10 +8598,10 @@
         <v>-0.024</v>
       </c>
       <c r="K14">
-        <v>-0.388</v>
+        <v>-0.345</v>
       </c>
       <c r="L14">
-        <v>0.699</v>
+        <v>0.73</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -8636,10 +8636,10 @@
         <v>0.043</v>
       </c>
       <c r="K15">
-        <v>0.777</v>
+        <v>0.52</v>
       </c>
       <c r="L15">
-        <v>0.439</v>
+        <v>0.603</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -8674,10 +8674,10 @@
         <v>-0.074</v>
       </c>
       <c r="K16">
-        <v>-1.185</v>
+        <v>-1.118</v>
       </c>
       <c r="L16">
-        <v>0.24</v>
+        <v>0.264</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -8712,10 +8712,10 @@
         <v>0.028</v>
       </c>
       <c r="K17">
-        <v>0.439</v>
+        <v>0.392</v>
       </c>
       <c r="L17">
-        <v>0.662</v>
+        <v>0.695</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -8750,10 +8750,10 @@
         <v>0.005</v>
       </c>
       <c r="K18">
-        <v>0.073</v>
+        <v>0.062</v>
       </c>
       <c r="L18">
-        <v>0.9419999999999999</v>
+        <v>0.951</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -8788,10 +8788,10 @@
         <v>-0.098</v>
       </c>
       <c r="K19">
-        <v>-1.387</v>
+        <v>-1.13</v>
       </c>
       <c r="L19">
-        <v>0.17</v>
+        <v>0.258</v>
       </c>
     </row>
   </sheetData>
@@ -8870,10 +8870,10 @@
         <v>-4.164</v>
       </c>
       <c r="H2">
-        <v>-0.879</v>
+        <v>-0.742</v>
       </c>
       <c r="I2">
-        <v>0.381</v>
+        <v>0.458</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -8899,10 +8899,10 @@
         <v>3.677</v>
       </c>
       <c r="H3">
-        <v>0.778</v>
+        <v>0.709</v>
       </c>
       <c r="I3">
-        <v>0.438</v>
+        <v>0.478</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -8928,10 +8928,10 @@
         <v>0.353</v>
       </c>
       <c r="H4">
-        <v>0.064</v>
+        <v>0.054</v>
       </c>
       <c r="I4">
-        <v>0.949</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -8957,10 +8957,10 @@
         <v>-6.147</v>
       </c>
       <c r="H5">
-        <v>-0.9409999999999999</v>
+        <v>-0.863</v>
       </c>
       <c r="I5">
-        <v>0.348</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -8986,10 +8986,10 @@
         <v>0.311</v>
       </c>
       <c r="H6">
-        <v>0.046</v>
+        <v>0.038</v>
       </c>
       <c r="I6">
-        <v>0.963</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9015,10 +9015,10 @@
         <v>0.103</v>
       </c>
       <c r="H7">
-        <v>0.015</v>
+        <v>0.018</v>
       </c>
       <c r="I7">
-        <v>0.988</v>
+        <v>0.986</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9041,13 +9041,13 @@
         <v>0.02</v>
       </c>
       <c r="G8">
-        <v>2.197</v>
+        <v>2.241</v>
       </c>
       <c r="H8">
-        <v>1.054</v>
+        <v>1.156</v>
       </c>
       <c r="I8">
-        <v>0.293</v>
+        <v>0.248</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9073,10 +9073,10 @@
         <v>-2.738</v>
       </c>
       <c r="H9">
-        <v>-1.267</v>
+        <v>-1.331</v>
       </c>
       <c r="I9">
-        <v>0.207</v>
+        <v>0.183</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9102,10 +9102,10 @@
         <v>0.194</v>
       </c>
       <c r="H10">
-        <v>0.07199999999999999</v>
+        <v>0.06900000000000001</v>
       </c>
       <c r="I10">
-        <v>0.9419999999999999</v>
+        <v>0.945</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9131,10 +9131,10 @@
         <v>3.159</v>
       </c>
       <c r="H11">
-        <v>1.167</v>
+        <v>1.313</v>
       </c>
       <c r="I11">
-        <v>0.245</v>
+        <v>0.189</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9160,10 +9160,10 @@
         <v>1.535</v>
       </c>
       <c r="H12">
-        <v>0.569</v>
+        <v>0.496</v>
       </c>
       <c r="I12">
-        <v>0.57</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9189,10 +9189,10 @@
         <v>1.097</v>
       </c>
       <c r="H13">
-        <v>0.407</v>
+        <v>0.428</v>
       </c>
       <c r="I13">
-        <v>0.6850000000000001</v>
+        <v>0.668</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9218,10 +9218,10 @@
         <v>-0.026</v>
       </c>
       <c r="H14">
-        <v>-0.6</v>
+        <v>-0.655</v>
       </c>
       <c r="I14">
-        <v>0.55</v>
+        <v>0.513</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9247,10 +9247,10 @@
         <v>0.006</v>
       </c>
       <c r="H15">
-        <v>0.147</v>
+        <v>0.123</v>
       </c>
       <c r="I15">
-        <v>0.884</v>
+        <v>0.902</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9276,10 +9276,10 @@
         <v>0.029</v>
       </c>
       <c r="H16">
-        <v>0.707</v>
+        <v>0.484</v>
       </c>
       <c r="I16">
-        <v>0.481</v>
+        <v>0.628</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9305,10 +9305,10 @@
         <v>0.023</v>
       </c>
       <c r="H17">
-        <v>0.52</v>
+        <v>0.585</v>
       </c>
       <c r="I17">
-        <v>0.604</v>
+        <v>0.5590000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9334,10 +9334,10 @@
         <v>0.04</v>
       </c>
       <c r="H18">
-        <v>0.874</v>
+        <v>0.852</v>
       </c>
       <c r="I18">
-        <v>0.384</v>
+        <v>0.394</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -9363,10 +9363,10 @@
         <v>0.037</v>
       </c>
       <c r="H19">
-        <v>0.821</v>
+        <v>1.048</v>
       </c>
       <c r="I19">
-        <v>0.413</v>
+        <v>0.295</v>
       </c>
     </row>
   </sheetData>
@@ -9445,10 +9445,10 @@
         <v>-5.466</v>
       </c>
       <c r="H2">
-        <v>-1.073</v>
+        <v>-1.077</v>
       </c>
       <c r="I2">
-        <v>0.285</v>
+        <v>0.281</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -9474,10 +9474,10 @@
         <v>4.656</v>
       </c>
       <c r="H3">
-        <v>0.916</v>
+        <v>0.722</v>
       </c>
       <c r="I3">
-        <v>0.361</v>
+        <v>0.47</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -9503,10 +9503,10 @@
         <v>1.62</v>
       </c>
       <c r="H4">
-        <v>0.274</v>
+        <v>0.244</v>
       </c>
       <c r="I4">
-        <v>0.785</v>
+        <v>0.8080000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -9532,10 +9532,10 @@
         <v>-2.437</v>
       </c>
       <c r="H5">
-        <v>-0.346</v>
+        <v>-0.365</v>
       </c>
       <c r="I5">
-        <v>0.73</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -9561,10 +9561,10 @@
         <v>-0.13</v>
       </c>
       <c r="H6">
-        <v>-0.018</v>
+        <v>-0.016</v>
       </c>
       <c r="I6">
-        <v>0.986</v>
+        <v>0.987</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -9590,10 +9590,10 @@
         <v>3.927</v>
       </c>
       <c r="H7">
-        <v>0.531</v>
+        <v>0.522</v>
       </c>
       <c r="I7">
-        <v>0.596</v>
+        <v>0.602</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -9616,13 +9616,13 @@
         <v>0.017</v>
       </c>
       <c r="G8">
-        <v>3.033</v>
+        <v>3.087</v>
       </c>
       <c r="H8">
-        <v>1.355</v>
+        <v>1.251</v>
       </c>
       <c r="I8">
-        <v>0.177</v>
+        <v>0.211</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -9648,10 +9648,10 @@
         <v>-3.842</v>
       </c>
       <c r="H9">
-        <v>-1.658</v>
+        <v>-1.423</v>
       </c>
       <c r="I9">
-        <v>0.099</v>
+        <v>0.155</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -9677,10 +9677,10 @@
         <v>-0.603</v>
       </c>
       <c r="H10">
-        <v>-0.209</v>
+        <v>-0.198</v>
       </c>
       <c r="I10">
-        <v>0.835</v>
+        <v>0.843</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -9706,10 +9706,10 @@
         <v>2.219</v>
       </c>
       <c r="H11">
-        <v>0.76</v>
+        <v>0.913</v>
       </c>
       <c r="I11">
-        <v>0.449</v>
+        <v>0.361</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -9735,10 +9735,10 @@
         <v>1.145</v>
       </c>
       <c r="H12">
-        <v>0.394</v>
+        <v>0.365</v>
       </c>
       <c r="I12">
-        <v>0.694</v>
+        <v>0.715</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -9764,10 +9764,10 @@
         <v>-1.161</v>
       </c>
       <c r="H13">
-        <v>-0.4</v>
+        <v>-0.335</v>
       </c>
       <c r="I13">
-        <v>0.6899999999999999</v>
+        <v>0.738</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -9793,10 +9793,10 @@
         <v>-0.054</v>
       </c>
       <c r="H14">
-        <v>-1.173</v>
+        <v>-1.407</v>
       </c>
       <c r="I14">
-        <v>0.243</v>
+        <v>0.16</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -9822,10 +9822,10 @@
         <v>0.031</v>
       </c>
       <c r="H15">
-        <v>0.6899999999999999</v>
+        <v>0.461</v>
       </c>
       <c r="I15">
-        <v>0.491</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -9851,10 +9851,10 @@
         <v>0.003</v>
       </c>
       <c r="H16">
-        <v>0.073</v>
+        <v>0.052</v>
       </c>
       <c r="I16">
-        <v>0.9419999999999999</v>
+        <v>0.958</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -9883,7 +9883,7 @@
         <v>-0.016</v>
       </c>
       <c r="I17">
-        <v>0.987</v>
+        <v>0.988</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -9909,10 +9909,10 @@
         <v>0.003</v>
       </c>
       <c r="H18">
-        <v>0.07000000000000001</v>
+        <v>0.07199999999999999</v>
       </c>
       <c r="I18">
-        <v>0.945</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -10027,10 +10027,10 @@
         <v>-3.806</v>
       </c>
       <c r="I2">
-        <v>-0.669</v>
+        <v>-0.631</v>
       </c>
       <c r="J2">
-        <v>0.505</v>
+        <v>0.528</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -10059,10 +10059,10 @@
         <v>2.782</v>
       </c>
       <c r="I3">
-        <v>0.49</v>
+        <v>0.427</v>
       </c>
       <c r="J3">
-        <v>0.625</v>
+        <v>0.669</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -10091,10 +10091,10 @@
         <v>2.121</v>
       </c>
       <c r="I4">
-        <v>0.321</v>
+        <v>0.313</v>
       </c>
       <c r="J4">
-        <v>0.748</v>
+        <v>0.754</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -10155,10 +10155,10 @@
         <v>3.47</v>
       </c>
       <c r="I6">
-        <v>0.432</v>
+        <v>0.353</v>
       </c>
       <c r="J6">
-        <v>0.666</v>
+        <v>0.724</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -10187,10 +10187,10 @@
         <v>0.966</v>
       </c>
       <c r="I7">
-        <v>0.117</v>
+        <v>0.095</v>
       </c>
       <c r="J7">
-        <v>0.907</v>
+        <v>0.924</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -10216,13 +10216,13 @@
         <v>0.014</v>
       </c>
       <c r="H8">
-        <v>2.608</v>
+        <v>2.623</v>
       </c>
       <c r="I8">
-        <v>1.043</v>
+        <v>1.025</v>
       </c>
       <c r="J8">
-        <v>0.298</v>
+        <v>0.305</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -10251,10 +10251,10 @@
         <v>-2.036</v>
       </c>
       <c r="I9">
-        <v>-0.783</v>
+        <v>-0.728</v>
       </c>
       <c r="J9">
-        <v>0.435</v>
+        <v>0.466</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -10283,10 +10283,10 @@
         <v>-0.703</v>
       </c>
       <c r="I10">
-        <v>-0.219</v>
+        <v>-0.223</v>
       </c>
       <c r="J10">
-        <v>0.827</v>
+        <v>0.823</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -10315,10 +10315,10 @@
         <v>0.094</v>
       </c>
       <c r="I11">
-        <v>0.029</v>
+        <v>0.034</v>
       </c>
       <c r="J11">
-        <v>0.977</v>
+        <v>0.973</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -10347,10 +10347,10 @@
         <v>-0.33</v>
       </c>
       <c r="I12">
-        <v>-0.102</v>
+        <v>-0.089</v>
       </c>
       <c r="J12">
-        <v>0.919</v>
+        <v>0.929</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -10379,10 +10379,10 @@
         <v>0.348</v>
       </c>
       <c r="I13">
-        <v>0.108</v>
+        <v>0.073</v>
       </c>
       <c r="J13">
-        <v>0.914</v>
+        <v>0.9419999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -10411,10 +10411,10 @@
         <v>-0.06900000000000001</v>
       </c>
       <c r="I14">
-        <v>-1.351</v>
+        <v>-1.76</v>
       </c>
       <c r="J14">
-        <v>0.179</v>
+        <v>0.078</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -10443,10 +10443,10 @@
         <v>0.021</v>
       </c>
       <c r="I15">
-        <v>0.425</v>
+        <v>0.346</v>
       </c>
       <c r="J15">
-        <v>0.671</v>
+        <v>0.729</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -10475,10 +10475,10 @@
         <v>-0.002</v>
       </c>
       <c r="I16">
-        <v>-0.043</v>
+        <v>-0.03</v>
       </c>
       <c r="J16">
-        <v>0.966</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -10507,10 +10507,10 @@
         <v>0.002</v>
       </c>
       <c r="I17">
-        <v>0.04</v>
+        <v>0.032</v>
       </c>
       <c r="J17">
-        <v>0.968</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -10539,10 +10539,10 @@
         <v>0.004</v>
       </c>
       <c r="I18">
-        <v>0.074</v>
+        <v>0.07099999999999999</v>
       </c>
       <c r="J18">
-        <v>0.9409999999999999</v>
+        <v>0.9429999999999999</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -10571,10 +10571,10 @@
         <v>-0.027</v>
       </c>
       <c r="I19">
-        <v>-0.487</v>
+        <v>-0.525</v>
       </c>
       <c r="J19">
-        <v>0.627</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -10653,10 +10653,10 @@
         <v>0.604</v>
       </c>
       <c r="H2">
-        <v>0.168</v>
+        <v>0.107</v>
       </c>
       <c r="I2">
-        <v>0.867</v>
+        <v>0.915</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -10682,10 +10682,10 @@
         <v>0.175</v>
       </c>
       <c r="H3">
-        <v>0.052</v>
+        <v>0.054</v>
       </c>
       <c r="I3">
-        <v>0.959</v>
+        <v>0.957</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -10711,10 +10711,10 @@
         <v>-1.553</v>
       </c>
       <c r="H4">
-        <v>-0.385</v>
+        <v>-0.363</v>
       </c>
       <c r="I4">
-        <v>0.701</v>
+        <v>0.717</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -10740,10 +10740,10 @@
         <v>-7.704</v>
       </c>
       <c r="H5">
-        <v>-1.627</v>
+        <v>-1.114</v>
       </c>
       <c r="I5">
-        <v>0.106</v>
+        <v>0.265</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -10798,10 +10798,10 @@
         <v>-0.952</v>
       </c>
       <c r="H7">
-        <v>-0.181</v>
+        <v>-0.197</v>
       </c>
       <c r="I7">
-        <v>0.857</v>
+        <v>0.844</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -10824,13 +10824,13 @@
         <v>0.044</v>
       </c>
       <c r="G8">
-        <v>0.439</v>
+        <v>0.425</v>
       </c>
       <c r="H8">
-        <v>0.278</v>
+        <v>0.192</v>
       </c>
       <c r="I8">
-        <v>0.781</v>
+        <v>0.848</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -10856,10 +10856,10 @@
         <v>-0.381</v>
       </c>
       <c r="H9">
-        <v>-0.243</v>
+        <v>-0.287</v>
       </c>
       <c r="I9">
-        <v>0.8090000000000001</v>
+        <v>0.774</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -10914,10 +10914,10 @@
         <v>2.648</v>
       </c>
       <c r="H11">
-        <v>1.293</v>
+        <v>0.97</v>
       </c>
       <c r="I11">
-        <v>0.198</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -10943,10 +10943,10 @@
         <v>0.267</v>
       </c>
       <c r="H12">
-        <v>0.133</v>
+        <v>0.153</v>
       </c>
       <c r="I12">
-        <v>0.894</v>
+        <v>0.878</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -10972,10 +10972,10 @@
         <v>0.93</v>
       </c>
       <c r="H13">
-        <v>0.44</v>
+        <v>0.548</v>
       </c>
       <c r="I13">
-        <v>0.661</v>
+        <v>0.584</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11001,10 +11001,10 @@
         <v>-0.013</v>
       </c>
       <c r="H14">
-        <v>-0.386</v>
+        <v>-0.298</v>
       </c>
       <c r="I14">
-        <v>0.7</v>
+        <v>0.766</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11030,10 +11030,10 @@
         <v>0.013</v>
       </c>
       <c r="H15">
-        <v>0.414</v>
+        <v>0.374</v>
       </c>
       <c r="I15">
-        <v>0.679</v>
+        <v>0.708</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11059,10 +11059,10 @@
         <v>0.021</v>
       </c>
       <c r="H16">
-        <v>0.643</v>
+        <v>0.489</v>
       </c>
       <c r="I16">
-        <v>0.521</v>
+        <v>0.625</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11088,10 +11088,10 @@
         <v>0.01</v>
       </c>
       <c r="H17">
-        <v>0.307</v>
+        <v>0.265</v>
       </c>
       <c r="I17">
-        <v>0.76</v>
+        <v>0.791</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11117,10 +11117,10 @@
         <v>0.035</v>
       </c>
       <c r="H18">
-        <v>1.041</v>
+        <v>1.033</v>
       </c>
       <c r="I18">
-        <v>0.3</v>
+        <v>0.302</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11146,10 +11146,10 @@
         <v>0.017</v>
       </c>
       <c r="H19">
-        <v>0.498</v>
+        <v>0.6929999999999999</v>
       </c>
       <c r="I19">
-        <v>0.619</v>
+        <v>0.488</v>
       </c>
     </row>
   </sheetData>
@@ -11228,10 +11228,10 @@
         <v>0.476</v>
       </c>
       <c r="H2">
-        <v>0.1</v>
+        <v>0.074</v>
       </c>
       <c r="I2">
-        <v>0.92</v>
+        <v>0.9409999999999999</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -11257,10 +11257,10 @@
         <v>-1.086</v>
       </c>
       <c r="H3">
-        <v>-0.244</v>
+        <v>-0.228</v>
       </c>
       <c r="I3">
-        <v>0.8080000000000001</v>
+        <v>0.82</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -11286,10 +11286,10 @@
         <v>-1.526</v>
       </c>
       <c r="H4">
-        <v>-0.286</v>
+        <v>-0.238</v>
       </c>
       <c r="I4">
-        <v>0.775</v>
+        <v>0.8120000000000001</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -11315,10 +11315,10 @@
         <v>-14.726</v>
       </c>
       <c r="H5">
-        <v>-2.381</v>
+        <v>-2.576</v>
       </c>
       <c r="I5">
-        <v>0.019</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -11344,10 +11344,10 @@
         <v>-4.084</v>
       </c>
       <c r="H6">
-        <v>-0.633</v>
+        <v>-0.5600000000000001</v>
       </c>
       <c r="I6">
-        <v>0.528</v>
+        <v>0.575</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -11373,10 +11373,10 @@
         <v>-7.126</v>
       </c>
       <c r="H7">
-        <v>-1.029</v>
+        <v>-0.912</v>
       </c>
       <c r="I7">
-        <v>0.305</v>
+        <v>0.362</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -11399,13 +11399,13 @@
         <v>0.027</v>
       </c>
       <c r="G8">
-        <v>1.186</v>
+        <v>1.189</v>
       </c>
       <c r="H8">
-        <v>0.57</v>
+        <v>0.482</v>
       </c>
       <c r="I8">
-        <v>0.57</v>
+        <v>0.63</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -11460,10 +11460,10 @@
         <v>0.015</v>
       </c>
       <c r="H10">
-        <v>0.006</v>
+        <v>0.005</v>
       </c>
       <c r="I10">
-        <v>0.995</v>
+        <v>0.996</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -11489,10 +11489,10 @@
         <v>5.706</v>
       </c>
       <c r="H11">
-        <v>2.132</v>
+        <v>3.146</v>
       </c>
       <c r="I11">
-        <v>0.035</v>
+        <v>0.002</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -11518,10 +11518,10 @@
         <v>2.154</v>
       </c>
       <c r="H12">
-        <v>0.8149999999999999</v>
+        <v>0.761</v>
       </c>
       <c r="I12">
-        <v>0.416</v>
+        <v>0.446</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -11547,10 +11547,10 @@
         <v>2.57</v>
       </c>
       <c r="H13">
-        <v>0.922</v>
+        <v>0.955</v>
       </c>
       <c r="I13">
-        <v>0.358</v>
+        <v>0.339</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -11576,10 +11576,10 @@
         <v>0.032</v>
       </c>
       <c r="H14">
-        <v>0.731</v>
+        <v>0.625</v>
       </c>
       <c r="I14">
-        <v>0.466</v>
+        <v>0.532</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -11605,10 +11605,10 @@
         <v>0.013</v>
       </c>
       <c r="H15">
-        <v>0.307</v>
+        <v>0.34</v>
       </c>
       <c r="I15">
-        <v>0.759</v>
+        <v>0.734</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -11634,10 +11634,10 @@
         <v>-0.008999999999999999</v>
       </c>
       <c r="H16">
-        <v>-0.208</v>
+        <v>-0.144</v>
       </c>
       <c r="I16">
-        <v>0.836</v>
+        <v>0.885</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -11663,10 +11663,10 @@
         <v>-0.029</v>
       </c>
       <c r="H17">
-        <v>-0.641</v>
+        <v>-0.706</v>
       </c>
       <c r="I17">
-        <v>0.523</v>
+        <v>0.48</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -11692,10 +11692,10 @@
         <v>-0.035</v>
       </c>
       <c r="H18">
-        <v>-0.789</v>
+        <v>-0.998</v>
       </c>
       <c r="I18">
-        <v>0.432</v>
+        <v>0.318</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -11721,10 +11721,10 @@
         <v>-0.018</v>
       </c>
       <c r="H19">
-        <v>-0.407</v>
+        <v>-0.524</v>
       </c>
       <c r="I19">
-        <v>0.6850000000000001</v>
+        <v>0.6</v>
       </c>
     </row>
   </sheetData>
@@ -11810,10 +11810,10 @@
         <v>-4.644</v>
       </c>
       <c r="I2">
-        <v>-0.873</v>
+        <v>-0.696</v>
       </c>
       <c r="J2">
-        <v>0.384</v>
+        <v>0.486</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -11842,10 +11842,10 @@
         <v>-1.691</v>
       </c>
       <c r="I3">
-        <v>-0.338</v>
+        <v>-0.281</v>
       </c>
       <c r="J3">
-        <v>0.736</v>
+        <v>0.778</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -11874,10 +11874,10 @@
         <v>2.008</v>
       </c>
       <c r="I4">
-        <v>0.335</v>
+        <v>0.289</v>
       </c>
       <c r="J4">
-        <v>0.738</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -11906,10 +11906,10 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="I5">
-        <v>-1.233</v>
+        <v>-1.336</v>
       </c>
       <c r="J5">
-        <v>0.22</v>
+        <v>0.182</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -11938,10 +11938,10 @@
         <v>-5.43</v>
       </c>
       <c r="I6">
-        <v>-0.749</v>
+        <v>-0.744</v>
       </c>
       <c r="J6">
-        <v>0.455</v>
+        <v>0.457</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -11970,10 +11970,10 @@
         <v>-5.737</v>
       </c>
       <c r="I7">
-        <v>-0.736</v>
+        <v>-0.657</v>
       </c>
       <c r="J7">
-        <v>0.463</v>
+        <v>0.511</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -11999,13 +11999,13 @@
         <v>0.021</v>
       </c>
       <c r="H8">
-        <v>3.571</v>
+        <v>3.603</v>
       </c>
       <c r="I8">
-        <v>1.538</v>
+        <v>1.231</v>
       </c>
       <c r="J8">
-        <v>0.126</v>
+        <v>0.218</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12034,10 +12034,10 @@
         <v>-0.316</v>
       </c>
       <c r="I9">
-        <v>-0.135</v>
+        <v>-0.122</v>
       </c>
       <c r="J9">
-        <v>0.892</v>
+        <v>0.903</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12066,10 +12066,10 @@
         <v>-1.532</v>
       </c>
       <c r="I10">
-        <v>-0.523</v>
+        <v>-0.454</v>
       </c>
       <c r="J10">
-        <v>0.602</v>
+        <v>0.65</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12098,10 +12098,10 @@
         <v>3.736</v>
       </c>
       <c r="I11">
-        <v>1.228</v>
+        <v>1.75</v>
       </c>
       <c r="J11">
-        <v>0.222</v>
+        <v>0.08</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12130,10 +12130,10 @@
         <v>2.841</v>
       </c>
       <c r="I12">
-        <v>0.958</v>
+        <v>0.976</v>
       </c>
       <c r="J12">
-        <v>0.34</v>
+        <v>0.329</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12194,10 +12194,10 @@
         <v>-0.019</v>
       </c>
       <c r="I14">
-        <v>-0.392</v>
+        <v>-0.422</v>
       </c>
       <c r="J14">
-        <v>0.696</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12226,10 +12226,10 @@
         <v>0.037</v>
       </c>
       <c r="I15">
-        <v>0.772</v>
+        <v>0.615</v>
       </c>
       <c r="J15">
-        <v>0.441</v>
+        <v>0.539</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12258,10 +12258,10 @@
         <v>-0.026</v>
       </c>
       <c r="I16">
-        <v>-0.543</v>
+        <v>-0.338</v>
       </c>
       <c r="J16">
-        <v>0.588</v>
+        <v>0.736</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12290,10 +12290,10 @@
         <v>-0.018</v>
       </c>
       <c r="I17">
-        <v>-0.355</v>
+        <v>-0.383</v>
       </c>
       <c r="J17">
-        <v>0.723</v>
+        <v>0.701</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12322,10 +12322,10 @@
         <v>-0.053</v>
       </c>
       <c r="I18">
-        <v>-1.042</v>
+        <v>-1.194</v>
       </c>
       <c r="J18">
-        <v>0.299</v>
+        <v>0.232</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12354,10 +12354,10 @@
         <v>-0.019</v>
       </c>
       <c r="I19">
-        <v>-0.37</v>
+        <v>-0.428</v>
       </c>
       <c r="J19">
-        <v>0.712</v>
+        <v>0.669</v>
       </c>
     </row>
   </sheetData>
@@ -12443,10 +12443,10 @@
         <v>-2.973</v>
       </c>
       <c r="I2">
-        <v>-0.517</v>
+        <v>-0.439</v>
       </c>
       <c r="J2">
-        <v>0.606</v>
+        <v>0.661</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -12475,10 +12475,10 @@
         <v>-0.844</v>
       </c>
       <c r="I3">
-        <v>-0.156</v>
+        <v>-0.126</v>
       </c>
       <c r="J3">
-        <v>0.876</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="4" spans="1:10">
@@ -12507,10 +12507,10 @@
         <v>-0.651</v>
       </c>
       <c r="I4">
-        <v>-0.101</v>
+        <v>-0.094</v>
       </c>
       <c r="J4">
-        <v>0.92</v>
+        <v>0.925</v>
       </c>
     </row>
     <row r="5" spans="1:10">
@@ -12539,10 +12539,10 @@
         <v>-2.305</v>
       </c>
       <c r="I5">
-        <v>-0.301</v>
+        <v>-0.286</v>
       </c>
       <c r="J5">
-        <v>0.764</v>
+        <v>0.775</v>
       </c>
     </row>
     <row r="6" spans="1:10">
@@ -12571,10 +12571,10 @@
         <v>-2.667</v>
       </c>
       <c r="I6">
-        <v>-0.34</v>
+        <v>-0.32</v>
       </c>
       <c r="J6">
-        <v>0.734</v>
+        <v>0.749</v>
       </c>
     </row>
     <row r="7" spans="1:10">
@@ -12603,10 +12603,10 @@
         <v>-10.528</v>
       </c>
       <c r="I7">
-        <v>-1.255</v>
+        <v>-1.001</v>
       </c>
       <c r="J7">
-        <v>0.212</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="8" spans="1:10">
@@ -12632,13 +12632,13 @@
         <v>0.018</v>
       </c>
       <c r="H8">
-        <v>3.419</v>
+        <v>3.426</v>
       </c>
       <c r="I8">
-        <v>1.361</v>
+        <v>1.293</v>
       </c>
       <c r="J8">
-        <v>0.176</v>
+        <v>0.196</v>
       </c>
     </row>
     <row r="9" spans="1:10">
@@ -12667,10 +12667,10 @@
         <v>0.307</v>
       </c>
       <c r="I9">
-        <v>0.122</v>
+        <v>0.1</v>
       </c>
       <c r="J9">
-        <v>0.903</v>
+        <v>0.92</v>
       </c>
     </row>
     <row r="10" spans="1:10">
@@ -12699,10 +12699,10 @@
         <v>-0.103</v>
       </c>
       <c r="I10">
-        <v>-0.033</v>
+        <v>-0.03</v>
       </c>
       <c r="J10">
-        <v>0.974</v>
+        <v>0.976</v>
       </c>
     </row>
     <row r="11" spans="1:10">
@@ -12731,10 +12731,10 @@
         <v>1.311</v>
       </c>
       <c r="I11">
-        <v>0.397</v>
+        <v>0.471</v>
       </c>
       <c r="J11">
-        <v>0.6919999999999999</v>
+        <v>0.638</v>
       </c>
     </row>
     <row r="12" spans="1:10">
@@ -12763,10 +12763,10 @@
         <v>1.416</v>
       </c>
       <c r="I12">
-        <v>0.441</v>
+        <v>0.46</v>
       </c>
       <c r="J12">
-        <v>0.66</v>
+        <v>0.646</v>
       </c>
     </row>
     <row r="13" spans="1:10">
@@ -12795,10 +12795,10 @@
         <v>3.794</v>
       </c>
       <c r="I13">
-        <v>1.123</v>
+        <v>0.953</v>
       </c>
       <c r="J13">
-        <v>0.263</v>
+        <v>0.341</v>
       </c>
     </row>
     <row r="14" spans="1:10">
@@ -12827,10 +12827,10 @@
         <v>-0.018</v>
       </c>
       <c r="I14">
-        <v>-0.332</v>
+        <v>-0.405</v>
       </c>
       <c r="J14">
-        <v>0.74</v>
+        <v>0.6860000000000001</v>
       </c>
     </row>
     <row r="15" spans="1:10">
@@ -12859,10 +12859,10 @@
         <v>0.054</v>
       </c>
       <c r="I15">
-        <v>1.043</v>
+        <v>0.949</v>
       </c>
       <c r="J15">
-        <v>0.299</v>
+        <v>0.343</v>
       </c>
     </row>
     <row r="16" spans="1:10">
@@ -12891,10 +12891,10 @@
         <v>-0.034</v>
       </c>
       <c r="I16">
-        <v>-0.663</v>
+        <v>-0.461</v>
       </c>
       <c r="J16">
-        <v>0.508</v>
+        <v>0.645</v>
       </c>
     </row>
     <row r="17" spans="1:10">
@@ -12923,10 +12923,10 @@
         <v>-0.022</v>
       </c>
       <c r="I17">
-        <v>-0.404</v>
+        <v>-0.328</v>
       </c>
       <c r="J17">
-        <v>0.6870000000000001</v>
+        <v>0.743</v>
       </c>
     </row>
     <row r="18" spans="1:10">
@@ -12955,10 +12955,10 @@
         <v>-0.056</v>
       </c>
       <c r="I18">
-        <v>-1.022</v>
+        <v>-1.15</v>
       </c>
       <c r="J18">
-        <v>0.309</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="19" spans="1:10">
@@ -12987,10 +12987,10 @@
         <v>-0.047</v>
       </c>
       <c r="I19">
-        <v>-0.862</v>
+        <v>-1</v>
       </c>
       <c r="J19">
-        <v>0.39</v>
+        <v>0.317</v>
       </c>
     </row>
   </sheetData>
@@ -13069,10 +13069,10 @@
         <v>-5.047</v>
       </c>
       <c r="H2">
-        <v>-1.317</v>
+        <v>-0.864</v>
       </c>
       <c r="I2">
-        <v>0.191</v>
+        <v>0.388</v>
       </c>
     </row>
     <row r="3" spans="1:9">
@@ -13098,10 +13098,10 @@
         <v>-0.479</v>
       </c>
       <c r="H3">
-        <v>-0.146</v>
+        <v>-0.16</v>
       </c>
       <c r="I3">
-        <v>0.884</v>
+        <v>0.873</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -13156,10 +13156,10 @@
         <v>-4.36</v>
       </c>
       <c r="H5">
-        <v>-0.847</v>
+        <v>-0.841</v>
       </c>
       <c r="I5">
-        <v>0.399</v>
+        <v>0.4</v>
       </c>
     </row>
     <row r="6" spans="1:9">
@@ -13185,10 +13185,10 @@
         <v>1.323</v>
       </c>
       <c r="H6">
-        <v>0.258</v>
+        <v>0.264</v>
       </c>
       <c r="I6">
-        <v>0.797</v>
+        <v>0.792</v>
       </c>
     </row>
     <row r="7" spans="1:9">
@@ -13214,10 +13214,10 @@
         <v>0.397</v>
       </c>
       <c r="H7">
-        <v>0.07199999999999999</v>
+        <v>0.08599999999999999</v>
       </c>
       <c r="I7">
-        <v>0.9429999999999999</v>
+        <v>0.9320000000000001</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -13240,13 +13240,13 @@
         <v>0.052</v>
       </c>
       <c r="G8">
-        <v>3.251</v>
+        <v>3.233</v>
       </c>
       <c r="H8">
-        <v>1.931</v>
+        <v>1.536</v>
       </c>
       <c r="I8">
-        <v>0.056</v>
+        <v>0.125</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -13272,10 +13272,10 @@
         <v>0.073</v>
       </c>
       <c r="H9">
-        <v>0.047</v>
+        <v>0.057</v>
       </c>
       <c r="I9">
-        <v>0.963</v>
+        <v>0.954</v>
       </c>
     </row>
     <row r="10" spans="1:9">
@@ -13301,10 +13301,10 @@
         <v>-0.59</v>
       </c>
       <c r="H10">
-        <v>-0.276</v>
+        <v>-0.325</v>
       </c>
       <c r="I10">
-        <v>0.783</v>
+        <v>0.746</v>
       </c>
     </row>
     <row r="11" spans="1:9">
@@ -13330,10 +13330,10 @@
         <v>1.805</v>
       </c>
       <c r="H11">
-        <v>0.8120000000000001</v>
+        <v>0.971</v>
       </c>
       <c r="I11">
-        <v>0.419</v>
+        <v>0.332</v>
       </c>
     </row>
     <row r="12" spans="1:9">
@@ -13359,10 +13359,10 @@
         <v>-0.823</v>
       </c>
       <c r="H12">
-        <v>-0.393</v>
+        <v>-0.422</v>
       </c>
       <c r="I12">
-        <v>0.695</v>
+        <v>0.673</v>
       </c>
     </row>
     <row r="13" spans="1:9">
@@ -13388,10 +13388,10 @@
         <v>-0.039</v>
       </c>
       <c r="H13">
-        <v>-0.017</v>
+        <v>-0.021</v>
       </c>
       <c r="I13">
-        <v>0.986</v>
+        <v>0.983</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -13417,10 +13417,10 @@
         <v>0.019</v>
       </c>
       <c r="H14">
-        <v>0.528</v>
+        <v>0.867</v>
       </c>
       <c r="I14">
-        <v>0.599</v>
+        <v>0.386</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -13446,10 +13446,10 @@
         <v>0.023</v>
       </c>
       <c r="H15">
-        <v>0.722</v>
+        <v>0.988</v>
       </c>
       <c r="I15">
-        <v>0.472</v>
+        <v>0.323</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -13475,10 +13475,10 @@
         <v>0.059</v>
       </c>
       <c r="H16">
-        <v>1.747</v>
+        <v>1.322</v>
       </c>
       <c r="I16">
-        <v>0.08400000000000001</v>
+        <v>0.186</v>
       </c>
     </row>
     <row r="17" spans="1:9">
@@ -13504,10 +13504,10 @@
         <v>0.021</v>
       </c>
       <c r="H17">
-        <v>0.604</v>
+        <v>0.506</v>
       </c>
       <c r="I17">
-        <v>0.547</v>
+        <v>0.613</v>
       </c>
     </row>
     <row r="18" spans="1:9">
@@ -13533,10 +13533,10 @@
         <v>0.065</v>
       </c>
       <c r="H18">
-        <v>1.741</v>
+        <v>1.489</v>
       </c>
       <c r="I18">
-        <v>0.08500000000000001</v>
+        <v>0.137</v>
       </c>
     </row>
     <row r="19" spans="1:9">
@@ -13562,10 +13562,10 @@
         <v>0.042</v>
       </c>
       <c r="H19">
-        <v>1.132</v>
+        <v>0.961</v>
       </c>
       <c r="I19">
-        <v>0.26</v>
+        <v>0.336</v>
       </c>
     </row>
   </sheetData>
